--- a/data/trans_orig/P74B2S1_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1_2015-Edad-trans_orig.xlsx
@@ -1092,7 +1092,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>30,8%</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>40,21%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>58,23%</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>54,25%</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>41,75%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>76,83%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>40,46%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>80,32%</t>
+          <t>76,29%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>42,04%</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>73,63%</t>
+          <t>73,34%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>30,84%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>58,94%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>55,25%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>68,89%</t>
+          <t>67,86%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>86,75%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>81,14%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>91,6%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>56,4%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>84,88%</t>
         </is>
       </c>
     </row>
